--- a/medicine/Enfance/Gordon_Korman/Gordon_Korman.xlsx
+++ b/medicine/Enfance/Gordon_Korman/Gordon_Korman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gordon Korman, né le 23 octobre 1963 à Montréal, est un écrivain canadien de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,92 +553,754 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Macdonald Hall
-(en) This Can't Be Happening at Macdonald Hall, 1978
+          <t>Série Macdonald Hall</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) This Can't Be Happening at Macdonald Hall, 1978
 (en) Go Jump in the Pool, 1979
 (en) Beware the Fish!, 1980
 (en) The War With Mr. Wizzle, 1982
 (en) The Zucchini Warriors, 1988
 (en) Macdonald Hall Goes Hollywood, 1991
-(en) Something Fishy at Macdonald Hall, 1995
-Série Bugs Potter
-(en) Who is Bugs Potter?, 1980
-(en) Bugs Potter LIVE at Nickaninny, 1983
-Série Jeremy Bloom
-(en) The D- Poems of Jeremy Bloom: A Collection of Poems About School, Homework, and Life (Sort Of), 1992
-(en) The Last-Place Sports Poems of Jeremy Bloom: A Collection of Poems About Winning, Losing, and Being a Good Sport (Sometimes), 1996
-Série Monday Night Football
-(en) The Quarterback Exchange, 1997
+(en) Something Fishy at Macdonald Hall, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Bugs Potter</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Who is Bugs Potter?, 1980
+(en) Bugs Potter LIVE at Nickaninny, 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Jeremy Bloom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The D- Poems of Jeremy Bloom: A Collection of Poems About School, Homework, and Life (Sort Of), 1992
+(en) The Last-Place Sports Poems of Jeremy Bloom: A Collection of Poems About Winning, Losing, and Being a Good Sport (Sometimes), 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Monday Night Football</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Quarterback Exchange, 1997
 (en) Running Back Conversion, 1997
 (en) Super Bowl Switch, 1997
 (en) Heavy Artillery, 1997
 (en) Ultimate Scoring Machine, 1998
-(en) NFL Rules! Bloopers, Pranks, Upsets, and Touchdowns, 1998
-Série Slapshots
-(en) The Stars From Mars, 1999
+(en) NFL Rules! Bloopers, Pranks, Upsets, and Touchdowns, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Slapshots</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) The Stars From Mars, 1999
 (en) All-Mars All-Stars/The Dream Team, 1999
 (en) The Face-off Phony, 2000
-(en) Cup Crazy, 2000
-Série Nose Pickers
-(en) Nose Pickers from Outer Space!, 1999
+(en) Cup Crazy, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Nose Pickers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Nose Pickers from Outer Space!, 1999
 (en) Planet of the Nose Pickers, 2000
 (en) Your Mummy Is a Nose Picker, 2000
-(en) Invasion of the Nose Pickers, 2001
-Série Naufragés
-La Tempête, Pocket Jeunesse, 2004 ((en) Shipwreck, 2000)
+(en) Invasion of the Nose Pickers, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Naufragés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Tempête, Pocket Jeunesse, 2004 ((en) Shipwreck, 2000)
 La Survie, Pocket Jeunesse, 2004 ((en) Survival, 2001)
-L'Évasion, Pocket Jeunesse, 2004 ((en) Escape, 2001)
-Série Mon père est un parrain
-Mon père est un parrain, Gallimard Jeunesse, 2005 ((en) Son of the Mob, 2002)
-Embrtouille à Hollywood, Gallimard Jeunesse, 2006 ((en) Son of the Mob: Hollywood Hustle, 2004)
-Série Everest
-Le Concours, Pocket Jeunesse, 2004 ((en) The Contest, 2002)
+L'Évasion, Pocket Jeunesse, 2004 ((en) Escape, 2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Mon père est un parrain</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mon père est un parrain, Gallimard Jeunesse, 2005 ((en) Son of the Mob, 2002)
+Embrtouille à Hollywood, Gallimard Jeunesse, 2006 ((en) Son of the Mob: Hollywood Hustle, 2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Everest</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Concours, Pocket Jeunesse, 2004 ((en) The Contest, 2002)
 L'Ascension, Pocket Jeunesse, 2004 ((en) The Climb, 2002)
-Le Sommet, Pocket Jeunesse, 2004 ((en) The Summit, 2002)
-Série Plongées
-L'Épave, Pocket Jeunesse, 2005 ((en) The Discovery, 2002)
+Le Sommet, Pocket Jeunesse, 2004 ((en) The Summit, 2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Plongées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'Épave, Pocket Jeunesse, 2005 ((en) The Discovery, 2002)
 Le Trésor, Pocket Jeunesse, 2005 ((en) The Deep, 2003)
-L'Émeraude, Pocket Jeunesse, 2005 ((en) The Danger, 2003)
-Série On the Run
-(en) Chasing the Falconers, 2005
+L'Émeraude, Pocket Jeunesse, 2005 ((en) The Danger, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série On the Run</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Chasing the Falconers, 2005
 (en) The Fugitive Factor, 2005
 (en) Now You See Them, Now You Don't, 2005
 (en) The Stowaway Solution, 2005
 (en) Public Enemies, 2005
-(en) Hunting the Hunter, 2006
-Série Kidnapped
-(en) The Abduction, 2006
+(en) Hunting the Hunter, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Série Kidnapped</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(en) The Abduction, 2006
 (en) The Search, 2006
-(en) The Rescue, 2006
-Série Swindle
-(en) Swindle, 2008
+(en) The Rescue, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Série Swindle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(en) Swindle, 2008
 (en) Zoobreak, 2009
 (en) Framed, 2010
 (en) Showoff, 2012
 (en) Hideout, 2013
 (en) Jackpot, 2014
-(en) Unleashed, 2015
-Univers Les 39 Clés
-Série Les 39 Clés
- Fausse note à Venise, Bayard Jeunesse, 2011 ((en) One False Note, 2008)
- Au sommet de l'Everest, Bayard Jeunesse, 2012 ((en) The Emperor's Code, 2010)
-Série Cahill contre Vesper
- La Menace Vesper, Bayard Jeunesse, 2014 ((en) Vespers Rising, 2011)Coécrit avec Rick Riordan, Peter Lerangis et Jude Watson.
- Panique à Florence, Bayard Jeunesse, 2014 ((en) The Medusa Plot, 2011)
-Série Cahill contre Pierce
- L'Ultime Ingrédient, Bayard Jeunesse, 2017 ((en) Flashpoint, 2014)
-Série Titanic
-Insubmersible, Hachette, 2012 ((en) Unsinkable, 2011)
+(en) Unleashed, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fausse note à Venise, Bayard Jeunesse, 2011 ((en) One False Note, 2008)
+ Au sommet de l'Everest, Bayard Jeunesse, 2012 ((en) The Emperor's Code, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série Cahill contre Vesper</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Menace Vesper, Bayard Jeunesse, 2014 ((en) Vespers Rising, 2011)Coécrit avec Rick Riordan, Peter Lerangis et Jude Watson.
+ Panique à Florence, Bayard Jeunesse, 2014 ((en) The Medusa Plot, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Série Cahill contre Pierce</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L'Ultime Ingrédient, Bayard Jeunesse, 2017 ((en) Flashpoint, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Série Titanic</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Insubmersible, Hachette, 2012 ((en) Unsinkable, 2011)
 Collision, Hachette, 2012 ((en) Collision Course, 2011)
-SOS, Hachette, 2012 ((en) S.O.S., 2011)
-Série Hypnotists
-(en) The Hypnotists, 2013
+SOS, Hachette, 2012 ((en) S.O.S., 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Série Hypnotists</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(en) The Hypnotists, 2013
 (en) Memory Maze, 2014
-(en) The Dragonfly Effect, 2015
-Série Masterminds
-(en) Masterminds, 2015
-Romans indépendants
-(en) I Want to Go Home!, 1981
+(en) The Dragonfly Effect, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Série Masterminds</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(en) Masterminds, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_Korman</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(en) I Want to Go Home!, 1981
 (en) Our Man Weston, 1982
 (en) No Coins, Please, 1984
 (en) Don't Care High, 1985
